--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lif-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lif-Lifr.xlsx
@@ -546,10 +546,10 @@
         <v>0.632575</v>
       </c>
       <c r="I2">
-        <v>0.06112302882278248</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="J2">
-        <v>0.06112302882278249</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N2">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q2">
-        <v>7.967791488447223</v>
+        <v>7.231134565958333</v>
       </c>
       <c r="R2">
-        <v>71.71012339602501</v>
+        <v>65.080211093625</v>
       </c>
       <c r="S2">
-        <v>0.02383456808947721</v>
+        <v>0.02680905883619538</v>
       </c>
       <c r="T2">
-        <v>0.02383456808947722</v>
+        <v>0.02680905883619538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.632575</v>
       </c>
       <c r="I3">
-        <v>0.06112302882278248</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="J3">
-        <v>0.06112302882278249</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>82.867604</v>
       </c>
       <c r="O3">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P3">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q3">
         <v>5.824441622255556</v>
@@ -638,10 +638,10 @@
         <v>52.4199746003</v>
       </c>
       <c r="S3">
-        <v>0.01742302752652595</v>
+        <v>0.02159381722394215</v>
       </c>
       <c r="T3">
-        <v>0.01742302752652596</v>
+        <v>0.02159381722394215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.632575</v>
       </c>
       <c r="I4">
-        <v>0.06112302882278248</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="J4">
-        <v>0.06112302882278249</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N4">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O4">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P4">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q4">
-        <v>1.941023142169445</v>
+        <v>6.918616931813889</v>
       </c>
       <c r="R4">
-        <v>17.469208279525</v>
+        <v>62.267552386325</v>
       </c>
       <c r="S4">
-        <v>0.005806307596322973</v>
+        <v>0.02565041580933634</v>
       </c>
       <c r="T4">
-        <v>0.005806307596322975</v>
+        <v>0.02565041580933635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.632575</v>
       </c>
       <c r="I5">
-        <v>0.06112302882278248</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="J5">
-        <v>0.06112302882278249</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N5">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O5">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P5">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q5">
-        <v>1.026994649694444</v>
+        <v>1.374940771291667</v>
       </c>
       <c r="R5">
-        <v>9.24295184725</v>
+        <v>12.374466941625</v>
       </c>
       <c r="S5">
-        <v>0.003072115270732486</v>
+        <v>0.005097522068994581</v>
       </c>
       <c r="T5">
-        <v>0.003072115270732487</v>
+        <v>0.005097522068994581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.632575</v>
       </c>
       <c r="I6">
-        <v>0.06112302882278248</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="J6">
-        <v>0.06112302882278249</v>
+        <v>0.08935241797113969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N6">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O6">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P6">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q6">
-        <v>3.672909328152778</v>
+        <v>2.751650925144444</v>
       </c>
       <c r="R6">
-        <v>33.056183953375</v>
+        <v>24.7648583263</v>
       </c>
       <c r="S6">
-        <v>0.01098701033972386</v>
+        <v>0.01020160403267123</v>
       </c>
       <c r="T6">
-        <v>0.01098701033972386</v>
+        <v>0.01020160403267123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.286858000000001</v>
       </c>
       <c r="I7">
-        <v>0.4142208356213503</v>
+        <v>0.6055268194268252</v>
       </c>
       <c r="J7">
-        <v>0.4142208356213504</v>
+        <v>0.6055268194268253</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N7">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q7">
-        <v>53.99642838332512</v>
+        <v>49.00422410489667</v>
       </c>
       <c r="R7">
-        <v>485.9678554499261</v>
+        <v>441.03801694407</v>
       </c>
       <c r="S7">
-        <v>0.1615229955197725</v>
+        <v>0.1816806360422319</v>
       </c>
       <c r="T7">
-        <v>0.1615229955197726</v>
+        <v>0.181680636042232</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.286858000000001</v>
       </c>
       <c r="I8">
-        <v>0.4142208356213503</v>
+        <v>0.6055268194268252</v>
       </c>
       <c r="J8">
-        <v>0.4142208356213504</v>
+        <v>0.6055268194268253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>82.867604</v>
       </c>
       <c r="O8">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P8">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q8">
         <v>39.47129457202578</v>
@@ -948,10 +948,10 @@
         <v>355.2416511482321</v>
       </c>
       <c r="S8">
-        <v>0.1180730268131178</v>
+        <v>0.1463377909607464</v>
       </c>
       <c r="T8">
-        <v>0.1180730268131178</v>
+        <v>0.1463377909607465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.286858000000001</v>
       </c>
       <c r="I9">
-        <v>0.4142208356213503</v>
+        <v>0.6055268194268252</v>
       </c>
       <c r="J9">
-        <v>0.4142208356213504</v>
+        <v>0.6055268194268253</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N9">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O9">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P9">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q9">
-        <v>13.15399847479623</v>
+        <v>46.88634287330645</v>
       </c>
       <c r="R9">
-        <v>118.385986273166</v>
+        <v>421.9770858597581</v>
       </c>
       <c r="S9">
-        <v>0.03934840322453134</v>
+        <v>0.1738287004949294</v>
       </c>
       <c r="T9">
-        <v>0.03934840322453135</v>
+        <v>0.1738287004949295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.286858000000001</v>
       </c>
       <c r="I10">
-        <v>0.4142208356213503</v>
+        <v>0.6055268194268252</v>
       </c>
       <c r="J10">
-        <v>0.4142208356213504</v>
+        <v>0.6055268194268253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N10">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O10">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P10">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q10">
-        <v>6.959775884282222</v>
+        <v>9.317750219243335</v>
       </c>
       <c r="R10">
-        <v>62.63798295854001</v>
+        <v>83.85975197319001</v>
       </c>
       <c r="S10">
-        <v>0.02081922606056471</v>
+        <v>0.03454507886281622</v>
       </c>
       <c r="T10">
-        <v>0.02081922606056472</v>
+        <v>0.03454507886281623</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4.286858000000001</v>
       </c>
       <c r="I11">
-        <v>0.4142208356213503</v>
+        <v>0.6055268194268252</v>
       </c>
       <c r="J11">
-        <v>0.4142208356213504</v>
+        <v>0.6055268194268253</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N11">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O11">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P11">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q11">
-        <v>24.89070977617889</v>
+        <v>18.64749125663022</v>
       </c>
       <c r="R11">
-        <v>224.01638798561</v>
+        <v>167.827421309672</v>
       </c>
       <c r="S11">
-        <v>0.07445718400336393</v>
+        <v>0.06913461306610112</v>
       </c>
       <c r="T11">
-        <v>0.07445718400336396</v>
+        <v>0.06913461306610115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5716873333333333</v>
+        <v>0.28293</v>
       </c>
       <c r="H12">
-        <v>1.715062</v>
+        <v>0.84879</v>
       </c>
       <c r="I12">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="J12">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N12">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q12">
-        <v>21.60258689603489</v>
+        <v>9.70274624865</v>
       </c>
       <c r="R12">
-        <v>194.423282064314</v>
+        <v>87.32471623785</v>
       </c>
       <c r="S12">
-        <v>0.06462121015954625</v>
+        <v>0.03597243180583216</v>
       </c>
       <c r="T12">
-        <v>0.06462121015954626</v>
+        <v>0.03597243180583216</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5716873333333333</v>
+        <v>0.28293</v>
       </c>
       <c r="H13">
-        <v>1.715062</v>
+        <v>0.84879</v>
       </c>
       <c r="I13">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="J13">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>82.867604</v>
       </c>
       <c r="O13">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P13">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q13">
-        <v>15.79145318349422</v>
+        <v>7.81524373324</v>
       </c>
       <c r="R13">
-        <v>142.123078651448</v>
+        <v>70.33719359916</v>
       </c>
       <c r="S13">
-        <v>0.04723799144085469</v>
+        <v>0.02897461347904969</v>
       </c>
       <c r="T13">
-        <v>0.0472379914408547</v>
+        <v>0.02897461347904969</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5716873333333333</v>
+        <v>0.28293</v>
       </c>
       <c r="H14">
-        <v>1.715062</v>
+        <v>0.84879</v>
       </c>
       <c r="I14">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="J14">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N14">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O14">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P14">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q14">
-        <v>5.262577610963779</v>
+        <v>9.283409659810001</v>
       </c>
       <c r="R14">
-        <v>47.363198498674</v>
+        <v>83.55068693829</v>
       </c>
       <c r="S14">
-        <v>0.01574228750545765</v>
+        <v>0.03441776300803319</v>
       </c>
       <c r="T14">
-        <v>0.01574228750545765</v>
+        <v>0.0344177630080332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5716873333333333</v>
+        <v>0.28293</v>
       </c>
       <c r="H15">
-        <v>1.715062</v>
+        <v>0.84879</v>
       </c>
       <c r="I15">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="J15">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N15">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O15">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P15">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q15">
-        <v>2.784427930117777</v>
+        <v>1.84489740705</v>
       </c>
       <c r="R15">
-        <v>25.05985137106</v>
+        <v>16.60407666345</v>
       </c>
       <c r="S15">
-        <v>0.008329238683876217</v>
+        <v>0.006839862082665155</v>
       </c>
       <c r="T15">
-        <v>0.008329238683876221</v>
+        <v>0.006839862082665155</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5716873333333333</v>
+        <v>0.28293</v>
       </c>
       <c r="H16">
-        <v>1.715062</v>
+        <v>0.84879</v>
       </c>
       <c r="I16">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="J16">
-        <v>0.1657191385351286</v>
+        <v>0.1198931966165651</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N16">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O16">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P16">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q16">
-        <v>9.95813495342111</v>
+        <v>3.692168974039999</v>
       </c>
       <c r="R16">
-        <v>89.62321458078999</v>
+        <v>33.22952076636</v>
       </c>
       <c r="S16">
-        <v>0.02978841074539379</v>
+        <v>0.01368852624098488</v>
       </c>
       <c r="T16">
-        <v>0.0297884107453938</v>
+        <v>0.01368852624098489</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.09959899999999999</v>
+        <v>0.1054983333333333</v>
       </c>
       <c r="H17">
-        <v>0.298797</v>
+        <v>0.316495</v>
       </c>
       <c r="I17">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="J17">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N17">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O17">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P17">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q17">
-        <v>3.763588812984333</v>
+        <v>3.617939271158333</v>
       </c>
       <c r="R17">
-        <v>33.872299316859</v>
+        <v>32.56145344042499</v>
       </c>
       <c r="S17">
-        <v>0.01125826572569501</v>
+        <v>0.01341332344206087</v>
       </c>
       <c r="T17">
-        <v>0.01125826572569501</v>
+        <v>0.01341332344206087</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.09959899999999999</v>
+        <v>0.1054983333333333</v>
       </c>
       <c r="H18">
-        <v>0.298797</v>
+        <v>0.316495</v>
       </c>
       <c r="I18">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="J18">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>82.867604</v>
       </c>
       <c r="O18">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P18">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q18">
-        <v>2.751176830265333</v>
+        <v>2.914131369775555</v>
       </c>
       <c r="R18">
-        <v>24.760591472388</v>
+        <v>26.22718232798</v>
       </c>
       <c r="S18">
-        <v>0.008229772526330276</v>
+        <v>0.0108039919097207</v>
       </c>
       <c r="T18">
-        <v>0.008229772526330279</v>
+        <v>0.0108039919097207</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.09959899999999999</v>
+        <v>0.1054983333333333</v>
       </c>
       <c r="H19">
-        <v>0.298797</v>
+        <v>0.316495</v>
       </c>
       <c r="I19">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="J19">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N19">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O19">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P19">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q19">
-        <v>0.9168428910576667</v>
+        <v>3.461577940693889</v>
       </c>
       <c r="R19">
-        <v>8.251586019518999</v>
+        <v>31.154201466245</v>
       </c>
       <c r="S19">
-        <v>0.002742611217418512</v>
+        <v>0.01283362186551145</v>
       </c>
       <c r="T19">
-        <v>0.002742611217418513</v>
+        <v>0.01283362186551145</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.09959899999999999</v>
+        <v>0.1054983333333333</v>
       </c>
       <c r="H20">
-        <v>0.298797</v>
+        <v>0.316495</v>
       </c>
       <c r="I20">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="J20">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N20">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O20">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P20">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q20">
-        <v>0.4851012454566666</v>
+        <v>0.6879213996916667</v>
       </c>
       <c r="R20">
-        <v>4.36591120911</v>
+        <v>6.191292597225</v>
       </c>
       <c r="S20">
-        <v>0.001451114613364509</v>
+        <v>0.002550433145834786</v>
       </c>
       <c r="T20">
-        <v>0.00145111461336451</v>
+        <v>0.002550433145834786</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.09959899999999999</v>
+        <v>0.1054983333333333</v>
       </c>
       <c r="H21">
-        <v>0.298797</v>
+        <v>0.316495</v>
       </c>
       <c r="I21">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="J21">
-        <v>0.02887148186880755</v>
+        <v>0.04470551875394357</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N21">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O21">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P21">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q21">
-        <v>1.734899875151666</v>
+        <v>1.376728071064444</v>
       </c>
       <c r="R21">
-        <v>15.614098876365</v>
+        <v>12.39055263958</v>
       </c>
       <c r="S21">
-        <v>0.00518971778599924</v>
+        <v>0.005104148390815761</v>
       </c>
       <c r="T21">
-        <v>0.005189717785999241</v>
+        <v>0.005104148390815763</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.138639</v>
+        <v>0.331611</v>
       </c>
       <c r="H22">
-        <v>3.415917</v>
+        <v>0.9948330000000001</v>
       </c>
       <c r="I22">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="J22">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N22">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O22">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P22">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q22">
-        <v>43.02622518727767</v>
+        <v>11.372202969855</v>
       </c>
       <c r="R22">
-        <v>387.2360266854991</v>
+        <v>102.349826728695</v>
       </c>
       <c r="S22">
-        <v>0.1287071198269023</v>
+        <v>0.04216185658489312</v>
       </c>
       <c r="T22">
-        <v>0.1287071198269024</v>
+        <v>0.04216185658489312</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.138639</v>
+        <v>0.331611</v>
       </c>
       <c r="H23">
-        <v>3.415917</v>
+        <v>0.9948330000000001</v>
       </c>
       <c r="I23">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="J23">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>82.867604</v>
       </c>
       <c r="O23">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P23">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q23">
-        <v>31.45209525031867</v>
+        <v>9.159936343348001</v>
       </c>
       <c r="R23">
-        <v>283.068857252868</v>
+        <v>82.439427090132</v>
       </c>
       <c r="S23">
-        <v>0.09408467915951146</v>
+        <v>0.03395999204892074</v>
       </c>
       <c r="T23">
-        <v>0.09408467915951148</v>
+        <v>0.03395999204892075</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.138639</v>
+        <v>0.331611</v>
       </c>
       <c r="H24">
-        <v>3.415917</v>
+        <v>0.9948330000000001</v>
       </c>
       <c r="I24">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="J24">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N24">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O24">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P24">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q24">
-        <v>10.48156178908434</v>
+        <v>10.880715232387</v>
       </c>
       <c r="R24">
-        <v>94.33405610175902</v>
+        <v>97.92643709148301</v>
       </c>
       <c r="S24">
-        <v>0.03135417116627875</v>
+        <v>0.04033969112097302</v>
       </c>
       <c r="T24">
-        <v>0.03135417116627876</v>
+        <v>0.04033969112097303</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.138639</v>
+        <v>0.331611</v>
       </c>
       <c r="H25">
-        <v>3.415917</v>
+        <v>0.9948330000000001</v>
       </c>
       <c r="I25">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="J25">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N25">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O25">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P25">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q25">
-        <v>5.545790590523334</v>
+        <v>2.162330873535</v>
       </c>
       <c r="R25">
-        <v>49.91211531471001</v>
+        <v>19.460977861815</v>
       </c>
       <c r="S25">
-        <v>0.01658948074023587</v>
+        <v>0.008016730304650178</v>
       </c>
       <c r="T25">
-        <v>0.01658948074023587</v>
+        <v>0.00801673030465018</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.138639</v>
+        <v>0.331611</v>
       </c>
       <c r="H26">
-        <v>3.415917</v>
+        <v>0.9948330000000001</v>
       </c>
       <c r="I26">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="J26">
-        <v>0.3300655151519309</v>
+        <v>0.1405220472315264</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N26">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O26">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P26">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q26">
-        <v>19.83378004741834</v>
+        <v>4.327444405507999</v>
       </c>
       <c r="R26">
-        <v>178.504020426765</v>
+        <v>38.946999649572</v>
       </c>
       <c r="S26">
-        <v>0.0593300642590025</v>
+        <v>0.01604377717208935</v>
       </c>
       <c r="T26">
-        <v>0.05933006425900252</v>
+        <v>0.01604377717208935</v>
       </c>
     </row>
   </sheetData>
